--- a/integrate/card_freq/card_behavoir_all_matrix.xlsx
+++ b/integrate/card_freq/card_behavoir_all_matrix.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="工作表5" sheetId="5" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表5!$A$1:$P$339</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1414,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="K64" sqref="K64"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -18373,6 +18376,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P339"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
